--- a/contents/save/대화창_fix3.xlsx
+++ b/contents/save/대화창_fix3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\4학년1학기\졸작\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atents\Documents\GitHub\wep_atens\contents\save\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5B9AAB-7DF7-484F-AED2-6480850703BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9427A6E6-B5EE-4E68-9C72-CEE0028D2ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F64C5F8D-A4CF-4DE1-B692-17A90AFC8DFD}"/>
+    <workbookView xWindow="2235" yWindow="1455" windowWidth="21600" windowHeight="11385" xr2:uid="{F64C5F8D-A4CF-4DE1-B692-17A90AFC8DFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -334,7 +334,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -790,11 +790,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7FFBBBA-ACC2-465F-9886-E7370DF08E11}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="D5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="3" width="35.875" customWidth="1"/>
@@ -802,7 +802,7 @@
     <col min="5" max="11" width="35.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -823,7 +823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="132" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="132">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -844,7 +844,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="165" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="165">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -865,7 +865,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" ht="198" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="198">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -886,7 +886,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="66">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -907,7 +907,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="115.5">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
@@ -928,7 +928,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="66">
       <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
@@ -949,7 +949,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="66">
       <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
@@ -968,7 +968,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="198" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="198">
       <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
@@ -989,7 +989,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="214.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="214.5">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -1005,71 +1005,71 @@
       <c r="E10" s="5"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7">
       <c r="B21" s="1" t="s">
         <v>4</v>
       </c>
@@ -1078,7 +1078,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7">
       <c r="B22" s="1" t="s">
         <v>4</v>
       </c>
@@ -1087,7 +1087,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7">
       <c r="B23" s="1" t="s">
         <v>4</v>
       </c>
@@ -1096,7 +1096,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="E24" s="1"/>

--- a/contents/save/대화창_fix3.xlsx
+++ b/contents/save/대화창_fix3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atents\Documents\GitHub\wep_atens\contents\save\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9427A6E6-B5EE-4E68-9C72-CEE0028D2ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F7086D-72BD-4965-A155-49ACE9B565EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2235" yWindow="1455" windowWidth="21600" windowHeight="11385" xr2:uid="{F64C5F8D-A4CF-4DE1-B692-17A90AFC8DFD}"/>
+    <workbookView xWindow="495" yWindow="2055" windowWidth="21600" windowHeight="11385" xr2:uid="{F64C5F8D-A4CF-4DE1-B692-17A90AFC8DFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -790,14 +790,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7FFBBBA-ACC2-465F-9886-E7370DF08E11}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
-    <col min="2" max="3" width="35.875" customWidth="1"/>
+    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="78.875" style="1" customWidth="1"/>
     <col min="5" max="11" width="35.875" customWidth="1"/>
   </cols>
